--- a/data/trans_orig/Q46-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>72.29410842343411</v>
+        <v>72.35796639877427</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>72.38196915868807</v>
+        <v>72.51520062754693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71.39514576131313</v>
+        <v>71.46577713348869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72.17145608668898</v>
+        <v>72.14660681576579</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>58.19462746577556</v>
+        <v>58.29996322967619</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>59.45575075065165</v>
+        <v>59.46058152818311</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>59.49427903170091</v>
+        <v>59.51508620928647</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>60.17659094310002</v>
+        <v>60.09155629471251</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>65.56577908046471</v>
+        <v>65.57631000280965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66.33228456367056</v>
+        <v>66.36406591448129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65.87831019801908</v>
+        <v>65.87141199150371</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>66.86857981855462</v>
+        <v>66.89274270400317</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>74.05555745451241</v>
+        <v>74.09928358397744</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>74.68858376425099</v>
+        <v>74.73390648748808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74.12806599030533</v>
+        <v>73.96726275955648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76.19408277587432</v>
+        <v>76.45735278092305</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>60.0714270148624</v>
+        <v>60.08798910763937</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>61.60739154766402</v>
+        <v>61.49178002452212</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>61.56294408857898</v>
+        <v>61.60572953509575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>63.90878397784206</v>
+        <v>63.74439199787049</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>67.14241044413868</v>
+        <v>67.02332898081251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68.13549239187689</v>
+        <v>68.097972193944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67.6747139301405</v>
+        <v>67.70938258406606</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>69.87458330085988</v>
+        <v>69.92200231205616</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>65.74393864994963</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>67.60496079926831</v>
+        <v>67.6049607992683</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>70.90022089302781</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>76.72949732851406</v>
+        <v>76.77404313114094</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>78.8112611733048</v>
+        <v>78.74589142187668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77.25340802453806</v>
+        <v>77.32859243378309</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77.40636788158722</v>
+        <v>77.45356994062649</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>62.17888390430473</v>
+        <v>62.17549864829961</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>64.74684270984937</v>
+        <v>64.7697950115945</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>64.66986840186824</v>
+        <v>64.71804160354223</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>65.89934839534617</v>
+        <v>65.87726521041697</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>70.17121287433788</v>
+        <v>70.19690251451735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72.45468346282455</v>
+        <v>72.37759331391673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71.42254534096817</v>
+        <v>71.45158520492447</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>71.88585965420012</v>
+        <v>72.00806626015348</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>78.4799812885807</v>
+        <v>78.44418453800958</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>80.75018663281215</v>
+        <v>80.64993822473177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79.46095895016327</v>
+        <v>79.47603077548689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80.37232972662079</v>
+        <v>80.57049298155711</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>64.05629378165212</v>
+        <v>64.09930691869049</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>66.93949782188032</v>
+        <v>66.94791170499884</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>66.73570047717691</v>
+        <v>66.85791912712838</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>72.47817568458993</v>
+        <v>72.53764261997</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>71.65674664686462</v>
+        <v>71.66379231304515</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74.05578949268872</v>
+        <v>74.04648055072946</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73.07411558708743</v>
+        <v>73.12208424200945</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>75.58641197782806</v>
+        <v>75.6360933995547</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>67.04966361677431</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>69.27260219736529</v>
+        <v>69.27260219736527</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>72.34237900459148</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>79.41853736338479</v>
+        <v>79.40372019167752</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>81.88983417958372</v>
+        <v>81.90277763485805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80.46234473614395</v>
+        <v>80.48932415422772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80.53536174045341</v>
+        <v>80.6174556846686</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>64.07883227067866</v>
+        <v>64.05837537408209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>66.20242973146573</v>
+        <v>66.38097844122953</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>65.9529756507157</v>
+        <v>66.16441443616827</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>67.59683795885661</v>
+        <v>67.70636594979004</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>71.57403433927524</v>
+        <v>71.61576359680349</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74.13202343355812</v>
+        <v>74.13834598390272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73.49863916752784</v>
+        <v>73.5592379711009</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>74.32190101105307</v>
+        <v>74.46260022450791</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>81.17084958286634</v>
+        <v>81.22655085919649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>83.94372527098388</v>
+        <v>83.96470495037502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82.62635601300963</v>
+        <v>82.66383147186775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82.99506094519974</v>
+        <v>83.02391429347357</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>66.0291383917819</v>
+        <v>66.0220863248729</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>68.06144667687128</v>
+        <v>68.23800861558895</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>68.09106747518013</v>
+        <v>68.06725394238192</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>73.2176467412804</v>
+        <v>73.14483957789486</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>73.15243945853244</v>
+        <v>73.14267318016103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75.72030173027289</v>
+        <v>75.76106551526358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75.29761027629863</v>
+        <v>75.24670655489922</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>77.18315299494805</v>
+        <v>77.7006092853422</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>79.39534631055254</v>
+        <v>79.41385405350785</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>81.01176024401984</v>
+        <v>80.99339500048062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81.9773711373625</v>
+        <v>82.14397713952253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82.31421179635696</v>
+        <v>82.32608351432775</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>65.74954526650164</v>
+        <v>65.6925622500313</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>67.84027641737963</v>
+        <v>67.77606166326566</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>67.97319413598247</v>
+        <v>67.85073539274788</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>68.63514035420411</v>
+        <v>68.56939464537568</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>72.83547463038535</v>
+        <v>72.79032560613831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74.64580092845196</v>
+        <v>74.59001187719242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75.24116015508088</v>
+        <v>75.20535610691532</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>75.56235599507109</v>
+        <v>75.5292191915906</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>81.68703893768787</v>
+        <v>81.66169444636006</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>83.32037963505235</v>
+        <v>83.29027736059363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84.37744225200919</v>
+        <v>84.49232522357508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>84.53158435293012</v>
+        <v>84.58011945910454</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>67.6637654323891</v>
+        <v>67.72932209906386</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>69.94723440211159</v>
+        <v>69.81476648542312</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>70.31070015268729</v>
+        <v>70.17896455505527</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>71.30330624647536</v>
+        <v>71.22051755581836</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>74.50291028705173</v>
+        <v>74.53600297722691</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76.30033040406519</v>
+        <v>76.42068770030723</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>77.00983350226834</v>
+        <v>77.00812069693576</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>77.4210759294285</v>
+        <v>77.38266129546926</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>82.21556131846175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83.02682842423771</v>
+        <v>83.02682842423769</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>68.703611558896</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>78.12965953104531</v>
+        <v>78.11685502206724</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>78.70174584320797</v>
+        <v>78.63369712080996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81.0748445974825</v>
+        <v>80.9759705276074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81.87692300965972</v>
+        <v>81.9433442632033</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>67.69669232737826</v>
+        <v>67.70726646120893</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>70.44769260607062</v>
+        <v>70.37779267483432</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>68.83674804450266</v>
+        <v>68.96138775290522</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>69.12244401196838</v>
+        <v>69.01626373110808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>73.04899340783783</v>
+        <v>73.05644753523475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74.72005208528084</v>
+        <v>74.715692184817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75.11084009597846</v>
+        <v>75.17817065559645</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>75.75111178460868</v>
+        <v>75.73038878399676</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>80.41259305604217</v>
+        <v>80.45706663476595</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>81.25258106405848</v>
+        <v>81.22803518309551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83.58139923951414</v>
+        <v>83.50639752468199</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84.20553068678343</v>
+        <v>84.18979807613213</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>69.76235188103932</v>
+        <v>69.75752781186206</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>72.91613898365665</v>
+        <v>73.0347139320053</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>71.4106683247949</v>
+        <v>71.40740956476085</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>70.67639680875408</v>
+        <v>70.62879950485041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>74.79546408969827</v>
+        <v>74.73999175821928</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76.59783680216127</v>
+        <v>76.69907928978637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76.97732426285256</v>
+        <v>77.12912986594858</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>77.25110875164802</v>
+        <v>77.27167287074181</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>75.85269349581277</v>
+        <v>75.79869764848459</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>78.55593428146803</v>
+        <v>78.46554058465313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79.43949178418329</v>
+        <v>79.54002675345848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79.21877181358525</v>
+        <v>79.12232390791374</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>69.52157944705282</v>
+        <v>69.51620718804202</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>72.01825789354037</v>
+        <v>72.14699321419192</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>69.26199479572783</v>
+        <v>69.30388788808642</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>69.69022885263223</v>
+        <v>69.67861545551619</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>72.64734174506241</v>
+        <v>72.72167579564049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75.46924178395871</v>
+        <v>75.46873804945551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74.39514444841046</v>
+        <v>74.35010694010663</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>74.58458846000899</v>
+        <v>74.51173644221669</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>78.00170892325853</v>
+        <v>78.03522579468938</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>81.22332172108273</v>
+        <v>81.25046616709224</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82.22521736144847</v>
+        <v>82.24300897486769</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81.46303957798763</v>
+        <v>81.34332796382732</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>71.79189897227575</v>
+        <v>71.78063380178463</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>74.95321375108378</v>
+        <v>74.89792111968615</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>71.82121000369224</v>
+        <v>71.80475992536357</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>71.38787651448031</v>
+        <v>71.36527195982072</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>74.36049781820476</v>
+        <v>74.33853761268561</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77.44652932793151</v>
+        <v>77.44337974006511</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76.41738340177947</v>
+        <v>76.4723496255228</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>76.07102174354866</v>
+        <v>75.99208345479418</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>74.99418500610594</v>
+        <v>75.0424706048868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>76.4722114974897</v>
+        <v>76.54041547685718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76.65149312799876</v>
+        <v>76.54110259502507</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75.30997217508462</v>
+        <v>75.22387760442793</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>68.25579483711385</v>
+        <v>68.17497283804646</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>69.65605206516479</v>
+        <v>69.72484610664799</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>69.40636312978532</v>
+        <v>69.28560340926605</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>68.16741821381069</v>
+        <v>68.17497687171151</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>71.17992095110162</v>
+        <v>71.20523403906894</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72.7281077667085</v>
+        <v>72.76449692032101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72.50496284028445</v>
+        <v>72.44790361248249</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>71.26064061137258</v>
+        <v>71.24457340411951</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>77.9305483144083</v>
+        <v>77.93537018982032</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>79.48779598710387</v>
+        <v>79.60184763075087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79.30156935450736</v>
+        <v>79.38854507096728</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77.25327136114441</v>
+        <v>77.16954714832055</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>71.01304782774086</v>
+        <v>71.04364227760284</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>72.10051990507617</v>
+        <v>72.21185893397509</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>72.25348221276809</v>
+        <v>72.11943288551856</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>69.66572939602521</v>
+        <v>69.665482493436</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>73.3711474849209</v>
+        <v>73.3057386321499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74.85379471639649</v>
+        <v>74.77975724838784</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74.64531628976547</v>
+        <v>74.70139363383342</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>72.5328989475894</v>
+        <v>72.58508117433878</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>79.95613944621526</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80.37328859528202</v>
+        <v>80.37328859528205</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>65.5227406736708</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>77.57112655957694</v>
+        <v>77.56815769755312</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>79.47201236170845</v>
+        <v>79.43473368996708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79.45392435379054</v>
+        <v>79.5058302764659</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>79.83551267180459</v>
+        <v>79.83776872875769</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>65.13308978391727</v>
+        <v>65.12768476324082</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>67.5434688471142</v>
+        <v>67.60772823155678</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>67.23598772861108</v>
+        <v>67.22441384004135</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>68.03268295909014</v>
+        <v>68.03415700334652</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>71.35705400340663</v>
+        <v>71.3476128708123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73.49272628647525</v>
+        <v>73.51263705694267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73.30418674640894</v>
+        <v>73.31896942458768</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>73.98550974754713</v>
+        <v>73.95999768872639</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>78.36863380534832</v>
+        <v>78.39353625924844</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>80.34125796768305</v>
+        <v>80.3190056698102</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>80.47354571661948</v>
+        <v>80.46268202940919</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>80.91760749249561</v>
+        <v>80.90614703976384</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>65.93496469423133</v>
+        <v>65.97110963585564</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>68.4549223829364</v>
+        <v>68.48633249981351</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>68.11390901922749</v>
+        <v>68.11574506848034</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>69.41437685271907</v>
+        <v>69.42060793214488</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>71.98769517139426</v>
+        <v>71.99903332504643</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>74.23045713693277</v>
+        <v>74.18566037626836</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74.05274744059646</v>
+        <v>74.09872135895863</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>74.84797068390431</v>
+        <v>74.82669621139659</v>
       </c>
     </row>
     <row r="28">
